--- a/.extra/Imports/С этим советуем.xlsx
+++ b/.extra/Imports/С этим советуем.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\bauten.loc\.extra\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04075F7-75A5-4D1F-BA56-9B9244464B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E73EA2-CB87-4955-A868-5A2BC44F653C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20640" windowHeight="11160" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
+    <workbookView xWindow="8340" yWindow="3840" windowWidth="15300" windowHeight="7965" xr2:uid="{B03375F6-64D3-4FD3-B838-58BB0705FD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Запчасть</t>
   </si>
@@ -39,19 +39,22 @@
     <t>Прикрепленные Запчасти</t>
   </si>
   <si>
-    <t>35BD219T12VV</t>
-  </si>
-  <si>
-    <t>38BWD26E1CA61</t>
-  </si>
-  <si>
-    <t>42BWD06CA98</t>
-  </si>
-  <si>
-    <t>35BD219T12VV,38BWD26E1CA61</t>
-  </si>
-  <si>
-    <t>57TB0609B01,57TB0615B01</t>
+    <t>190a5377-903d-11e6-a282-00155d466602</t>
+  </si>
+  <si>
+    <t>41de306c-9cee-11e7-80c4-448a5b2c34e5,41de3070-9cee-11e7-80c4-448a5b2c34e5</t>
+  </si>
+  <si>
+    <t>41de3068-9cee-11e7-80c4-448a5b2c34e5</t>
+  </si>
+  <si>
+    <t>190a5367-903d-11e6-a282-00155d466602</t>
+  </si>
+  <si>
+    <t>840351f9-a2de-11e8-80c6-448a5b2c34e5</t>
+  </si>
+  <si>
+    <t>840351f7-a2de-11e8-80c6-448a5b2c34e5,190a5367-903d-11e6-a282-00155d466602</t>
   </si>
 </sst>
 </file>
@@ -408,13 +411,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,20 +433,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
